--- a/Excel Lec/Lookups/lab-assignment-2.xlsx
+++ b/Excel Lec/Lookups/lab-assignment-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel Lec\Lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\DA pyth [Anudip]\Excel Lec\Lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6054DBE-25FB-444E-A70B-016CEB01A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FA083-259D-461B-B673-372BD6C782EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="3096" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>Products</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>calculate the TotalPrice by multiplying the Quantity by the Product Price</t>
-  </si>
-  <si>
-    <t>Product G</t>
   </si>
   <si>
     <t>Use VLOOKUP to check if there are any ProductIDs in the Orders worksheet that</t>
@@ -181,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +188,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,11 +216,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,97 +1417,87 @@
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -1507,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DA5A7F-A11B-43F8-9C71-B200EB248E69}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1563,32 +1565,32 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1601,39 +1603,39 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="5" t="str">
         <f>VLOOKUP(B4,Products!A3:C9,2,FALSE)</f>
         <v>Product A</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f>VLOOKUP(B4,Products!A3:C9,3,FALSE)*C4</f>
         <v>240</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F4" s="5" t="str">
         <f>IF(VLOOKUP(B4,Products!A3:C9,1,FALSE)=Orders1!B4,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <f>VLOOKUP(B4,Products!A3:C10,3,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <f>G4-(0.1*G4)</f>
         <v>108</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <f>VLOOKUP(B4,Products!A3:C10,3,FALSE)*C4</f>
         <v>240</v>
       </c>
-      <c r="J4" t="str">
+      <c r="J4" s="5" t="str">
         <f>IF(VLOOKUP(B4,Products!A3:C10,1,FALSE)=Orders1!B4,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K4" t="str">
+      <c r="K4" s="5" t="str">
         <f>VLOOKUP(B4,Products!A3:C10,2,FALSE)</f>
         <v>Product A</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1647,39 +1649,39 @@
       <c r="C5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="5" t="str">
         <f>VLOOKUP(B5,Products!A4:C10,2,FALSE)</f>
         <v>Product B</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f>VLOOKUP(B5,Products!A4:C10,3,FALSE)*C5</f>
         <v>750</v>
       </c>
-      <c r="F5" t="str">
+      <c r="F5" s="5" t="str">
         <f>IF(VLOOKUP(B5,Products!A4:C10,1,FALSE)=Orders1!B5,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <f>VLOOKUP(B5,Products!A4:C11,3,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <f t="shared" ref="H5:H9" si="0">G5-(0.1*G5)</f>
         <v>135</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <f>VLOOKUP(B5,Products!A4:C11,3,FALSE)*C5</f>
         <v>750</v>
       </c>
-      <c r="J5" t="str">
+      <c r="J5" s="5" t="str">
         <f>IF(VLOOKUP(B5,Products!A4:C11,1)=Orders1!B5,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K5" t="str">
+      <c r="K5" s="5" t="str">
         <f>VLOOKUP(B5,Products!A4:C11,2,FALSE)</f>
         <v>Product B</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>5</v>
       </c>
     </row>
@@ -1693,39 +1695,39 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="5" t="str">
         <f>VLOOKUP(B6,Products!A5:C11,2,FALSE)</f>
         <v>Product C</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <f>VLOOKUP(B6,Products!A5:C11,3,FALSE)*C6</f>
         <v>200</v>
       </c>
-      <c r="F6" t="str">
+      <c r="F6" s="5" t="str">
         <f>IF(VLOOKUP(B6,Products!A5:C11,1,FALSE)=Orders1!B6,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <f>VLOOKUP(B6,Products!A5:C12,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <f>VLOOKUP(B6,Products!A5:C12,3,FALSE)*C6</f>
         <v>200</v>
       </c>
-      <c r="J6" t="str">
+      <c r="J6" s="5" t="str">
         <f>IF(VLOOKUP(B6,Products!A5:C12,1)=Orders1!B6,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K6" t="str">
+      <c r="K6" s="5" t="str">
         <f>VLOOKUP(B6,Products!A5:C12,2,FALSE)</f>
         <v>Product C</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1739,39 +1741,39 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="5" t="str">
         <f>VLOOKUP(B7,Products!A6:C12,2,FALSE)</f>
         <v>Product D</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <f>VLOOKUP(B7,Products!A6:C12,3,FALSE)*C7</f>
         <v>540</v>
       </c>
-      <c r="F7" t="str">
+      <c r="F7" s="5" t="str">
         <f>IF(VLOOKUP(B7,Products!A6:C12,1,FALSE)=Orders1!B7,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f>VLOOKUP(B7,Products!A6:C13,3,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <f>VLOOKUP(B7,Products!A6:C13,3,FALSE)*C7</f>
         <v>540</v>
       </c>
-      <c r="J7" t="str">
+      <c r="J7" s="5" t="str">
         <f>IF(VLOOKUP(B7,Products!A6:C13,1)=Orders1!B7,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K7" t="str">
+      <c r="K7" s="5" t="str">
         <f>VLOOKUP(B7,Products!A6:C13,2,FALSE)</f>
         <v>Product D</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>6</v>
       </c>
     </row>
@@ -1785,39 +1787,39 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="5" t="str">
         <f>VLOOKUP(B8,Products!A7:C13,2,FALSE)</f>
         <v>Product E</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f>VLOOKUP(B8,Products!A7:C13,3,FALSE)*C8</f>
         <v>880</v>
       </c>
-      <c r="F8" t="str">
+      <c r="F8" s="5" t="str">
         <f>IF(VLOOKUP(B8,Products!A7:C13,1,FALSE)=Orders1!B8,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f>VLOOKUP(B8,Products!A7:C14,3,FALSE)</f>
         <v>220</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <f>VLOOKUP(B8,Products!A7:C14,3,FALSE)*C8</f>
         <v>880</v>
       </c>
-      <c r="J8" t="str">
+      <c r="J8" s="5" t="str">
         <f>IF(VLOOKUP(B8,Products!A7:C14,1)=Orders1!B8,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K8" t="str">
+      <c r="K8" s="5" t="str">
         <f>VLOOKUP(B8,Products!A7:C14,2,FALSE)</f>
         <v>Product E</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1831,45 +1833,45 @@
       <c r="C9" s="1">
         <v>3</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="5" t="str">
         <f>VLOOKUP(B9,Products!A8:C14,2,FALSE)</f>
         <v>Product F</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <f>VLOOKUP(B9,Products!A8:C14,3,FALSE)*C9</f>
         <v>390</v>
       </c>
-      <c r="F9" t="str">
+      <c r="F9" s="5" t="str">
         <f>IF(VLOOKUP(B9,Products!A8:C14,1,FALSE)=Orders1!B9,"Exists","Doesn't Exist")</f>
         <v>Exists</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <f>VLOOKUP(B9,Products!A8:C15,3,FALSE)</f>
         <v>130</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <f>VLOOKUP(B9,Products!A8:C15,3,FALSE)*C9</f>
         <v>390</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J9" s="5" t="str">
         <f>IF(VLOOKUP(B9,Products!A8:C15,1)=Orders1!B9,"Ordered", "Not Ordered")</f>
         <v>Ordered</v>
       </c>
-      <c r="K9" t="str">
+      <c r="K9" s="5" t="str">
         <f>VLOOKUP(B9,Products!A8:C15,2,FALSE)</f>
         <v>Product F</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <f>MAX(I4:I9)</f>
@@ -1907,12 +1909,12 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1920,12 +1922,12 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1933,12 +1935,12 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1946,12 +1948,12 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -1959,12 +1961,12 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
